--- a/Test Data/MPR.xlsx
+++ b/Test Data/MPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F2440-1DCF-45F4-844A-E5EAA174D66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD5FD97-23B7-4646-9189-286B6787CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{E4164E75-769E-44C3-82D8-CB36084CFFE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4164E75-769E-44C3-82D8-CB36084CFFE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>MPR</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">Time Correction - Per Staff </t>
   </si>
   <si>
+    <t xml:space="preserve">Active employee sheet - per staff </t>
+  </si>
+  <si>
     <t>MPR Head Office &amp; Manager Sheet Update - Per staff</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
     <t xml:space="preserve">Manager's Leaves </t>
   </si>
   <si>
-    <t xml:space="preserve">Time Correction Emails </t>
-  </si>
-  <si>
     <t xml:space="preserve">Profile Update - Details </t>
   </si>
   <si>
@@ -168,65 +168,80 @@
     <t>Right To Work Check</t>
   </si>
   <si>
-    <t>Site Decant</t>
-  </si>
-  <si>
     <t>Time off Emails</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
     <t>Contract</t>
   </si>
   <si>
     <t xml:space="preserve">Rota amendments </t>
   </si>
   <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
     <t>Interview Scheduled</t>
   </si>
   <si>
-    <t>Interviews</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Active employee sheet - per staff</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Textarea</t>
+    <t>Zoom Call - Interviews</t>
+  </si>
+  <si>
+    <t>Telephonic Interview</t>
+  </si>
+  <si>
+    <t>Site Wise Accrued Hrs - Per Staff</t>
+  </si>
+  <si>
+    <t>Time Correction/ Swap Emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,19 +257,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,543 +610,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAA6C2-67C1-4216-B6CF-5137187E48BF}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>63</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
       <c r="C39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
+      <c r="C42" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1141,8 +1152,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1152,8 +1163,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -1163,91 +1174,102 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>60</v>
+      <c r="C59" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
